--- a/results_save/results_lstm.xlsx
+++ b/results_save/results_lstm.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test_metric" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test_metric" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5189822024471635</v>
+        <v>0.7487995647146841</v>
       </c>
     </row>
     <row r="3">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4448275862068966</v>
+        <v>0.6672413793103448</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6058064516129033</v>
+        <v>0.6996234534696073</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5804347826086957</v>
+        <v>0.6945174444947894</v>
       </c>
     </row>
     <row r="6">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2268989622617455</v>
+        <v>0.4113924388519746</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4448275862068966</v>
+        <v>0.6672413793103448</v>
       </c>
     </row>
     <row r="8">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1794533642246595</v>
+        <v>0.2940881194623083</v>
       </c>
     </row>
     <row r="9">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2531371748548816</v>
+        <v>0.4075273081765547</v>
       </c>
     </row>
     <row r="10">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0259276876795126</v>
+        <v>0.0113294010422228</v>
       </c>
     </row>
     <row r="11">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05189626532169798</v>
+        <v>0.05620442840642598</v>
       </c>
     </row>
     <row r="12">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09627073340481919</v>
+        <v>0.03003252159084799</v>
       </c>
     </row>
     <row r="13">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07488077322308921</v>
+        <v>0.01896421933114123</v>
       </c>
     </row>
     <row r="14">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02730429828967661</v>
+        <v>0.009813132603319561</v>
       </c>
     </row>
     <row r="15">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05189626532169798</v>
+        <v>0.05620442840642598</v>
       </c>
     </row>
     <row r="16">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02759489485541908</v>
+        <v>0.01194068977350445</v>
       </c>
     </row>
     <row r="17">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02443745180938709</v>
+        <v>0.01704122359232227</v>
       </c>
     </row>
   </sheetData>
